--- a/biology/Médecine/Gradient_alvéolo-artériel/Gradient_alvéolo-artériel.xlsx
+++ b/biology/Médecine/Gradient_alvéolo-artériel/Gradient_alvéolo-artériel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gradient_alv%C3%A9olo-art%C3%A9riel</t>
+          <t>Gradient_alvéolo-artériel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gradient alvéolo-artériel en oxygène (A-aO2[1], ou gradient A-a), est la différence entre la pression partielle de l'oxygène alvéolaire (AO2) et celle de l'oxygène artériel (aO2).
-Son estimation permet d'évaluer l'intégrité des capillaires alvéolaires. Le gradient A-a physiologique est compris entre 5 - 15 mm Hg. Il sert a distinguer différentes causes d'hypoxie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gradient alvéolo-artériel en oxygène (A-aO2, ou gradient A-a), est la différence entre la pression partielle de l'oxygène alvéolaire (AO2) et celle de l'oxygène artériel (aO2).
+Son estimation permet d'évaluer l'intégrité des capillaires alvéolaires. Le gradient A-a physiologique est compris entre 5 - 15 mm Hg. Il sert a distinguer différentes causes d'hypoxie.
 - Le gradient A-a est élevé en cas :  
 d'inadéquation de ventilation/perfusion (V/Q mismatch) telles que l'embolie pulmonaire
-de shunt anatomique intracardiaque droit-gauche[3].
+de shunt anatomique intracardiaque droit-gauche.
 de limitation de la diffusion par exemple en cas de pneumonie sévère, d'oedème pulmonaire ou d'altération de la membrane alvéolo-capillaire
 - le gradient A-a est normal en cas d'hypoxie causée par l'hyperventilation ou la haute altitude (en haute altitude, l'oxygène artériel PaO2 est faible, mais seulement à cause du fait que l'oxygène alvéolaire (PAO2) est également faible).
 - le gradient A-a est abaissé en cas : 
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gradient_alv%C3%A9olo-art%C3%A9riel</t>
+          <t>Gradient_alvéolo-artériel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t xml:space="preserve">Équation </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équation pour le calcul du gradient A-a est :
         G
@@ -544,7 +558,6 @@
           O
             2
     {\displaystyle Gradient~Aa=P_{A}O_{2}-P_{a}O_{2}}
-[4]
 Où :
 PAO2 = PO2 alvéolaire (calculé à partir de l'équation des gaz alvéolaires)
           P
@@ -662,7 +675,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gradient_alv%C3%A9olo-art%C3%A9riel</t>
+          <t>Gradient_alvéolo-artériel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -680,7 +693,9 @@
           <t>Valeurs et interprétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gradient alvéolo-artériel est utile dans la détermination de la source de l'hypoxémie. La mesure permet de localiser l'anomalie, qu'elle soit intra-pulmonaire ou extra-pulmonaire.
 Un gradient normal pour un jeune adulte non-fumeur, respirant de l'air est comprise entre 5 et 10 mmHg. Il augmente naturellement avec l'âge de 1 mmHg chaque décennie.Une estimation prudente de la normale est inférieure à ((âge en années /4) + 4). Ainsi, une personne de 40 ans devrait avoir un gradient alvéolo-artériel inférieur à 14 mmHg.
